--- a/data/financial_statements/sofp/ZION.xlsx
+++ b/data/financial_statements/sofp/ZION.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,631 +578,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>4888000000</v>
+      </c>
+      <c r="C2">
         <v>5163000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4385000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8520000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>13383000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12202000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>12506000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10507000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7648000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4434000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2575000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2665000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2114000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2729000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1940000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1992000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2800000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1843000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1931000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2026000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1992000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1829000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2136000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2730000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2831000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3825935000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3454465000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>5209943000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>7574369000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>8560395000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>9898313000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>9103364000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>9476932000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>8464819000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>8305591000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>9935275000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>9666938000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>9793069000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>9611290000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>9082563000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>59974000000</v>
+      </c>
+      <c r="C3">
         <v>58565000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>56289000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>59327000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>63804000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>62456000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>63435000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>63410000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>60428000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>58415000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>56949000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>52002000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>50457000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>51195000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>50159000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>49170000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>49112000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>47234000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>46755000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>46726000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>46298000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>45515000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>45328000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>45056000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>45085000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>45928750000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>45494210000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>46125000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>47767740000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>48216200000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>49465370000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>48792410000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>49068430000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>47703480000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>47424420000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>48522800000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>48135340000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>47383090000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>47149940000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>46164760000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1408000000</v>
+      </c>
+      <c r="C4">
         <v>1388000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1372000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1346000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1319000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1282000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1239000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1236000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1209000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1187000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1173000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1144000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1142000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1146000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1133000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1125000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1124000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1111000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1099000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1098000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1094000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1083000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1069000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1047000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1020000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>986553000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>955540000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>925430000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>905462000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>873800000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>856577000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>844900000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>829809000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>811127000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>803214000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>785519000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>726372000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>720365000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>717299000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>706746000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>24171000000</v>
+      </c>
+      <c r="C5">
         <v>24639000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>26751000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>27413000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>25340000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>21788000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>19685000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>18042000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>17184000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>16084000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>15702000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>15732000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>15215000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>15673000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>16423000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>16661000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>16557000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>16403000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>16559000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>16737000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>16960000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>16996000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>17128000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>17394000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>15124000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>11967470000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>11041060000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>10189340000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>9036908000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>7395404000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>6086727000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>5911577000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>5357450000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>5028909000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4932891000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>4878259000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>5146509000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>4963087000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>4829705000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>4879390000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1065000000</v>
+      </c>
+      <c r="C6">
         <v>1034000000</v>
-      </c>
-      <c r="C6">
-        <v>1015000000</v>
       </c>
       <c r="D6">
         <v>1015000000</v>
@@ -1103,7 +1232,7 @@
         <v>1015000000</v>
       </c>
       <c r="H6">
-        <v>1016000000</v>
+        <v>1015000000</v>
       </c>
       <c r="I6">
         <v>1016000000</v>
@@ -1112,7 +1241,7 @@
         <v>1016000000</v>
       </c>
       <c r="K6">
-        <v>1014000000</v>
+        <v>1016000000</v>
       </c>
       <c r="L6">
         <v>1014000000</v>
@@ -1130,7 +1259,7 @@
         <v>1014000000</v>
       </c>
       <c r="Q6">
-        <v>1015000000</v>
+        <v>1014000000</v>
       </c>
       <c r="R6">
         <v>1015000000</v>
@@ -1139,902 +1268,923 @@
         <v>1015000000</v>
       </c>
       <c r="T6">
-        <v>1016000000</v>
+        <v>1015000000</v>
       </c>
       <c r="U6">
         <v>1016000000</v>
       </c>
       <c r="V6">
+        <v>1016000000</v>
+      </c>
+      <c r="W6">
         <v>1017000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1019000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1021000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1022000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1024458000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1026410000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1028388000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1030401000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1032675000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1034972000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1037291000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1039649000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1042289000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1044955000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1047691000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1050573000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1053796000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1057368000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1061129000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2927000000</v>
+      </c>
+      <c r="C7">
         <v>2848000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2357000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2025000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1722000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1765000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1834000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1417000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1642000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1655000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1609000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1575000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1344000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1333000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1336000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1225000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>938000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>968000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1029000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>904000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>920000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>953000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>902000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>945000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>988000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1131620000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1125776000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>911753000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>924029000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>892849000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>921812000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>969752000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>913536000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>873069000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>905793900</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>846573000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>972333000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1067978000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1150225000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1298539000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>29571000000</v>
+      </c>
+      <c r="C8">
         <v>29909000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>31495000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>31799000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>29396000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>25850000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>23773000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>21711000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>21051000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>19942000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>19498000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>19465000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>18715000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>19166000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>19906000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>20025000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>19634000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>19497000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>19702000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>19755000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>19990000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>20049000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>20118000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>20407000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>18154000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>15110100000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>14148790000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>13054910000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>11896800000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>10194730000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>8900088000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>8763520000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>8140444000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>7755394000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>7686854000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>7558042000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>7895787000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>7805226000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>7754597000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>7945804000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>89545000000</v>
+      </c>
+      <c r="C9">
         <v>88474000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>87784000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>91126000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>93200000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>88306000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>87208000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>85121000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>81479000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>78357000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>76447000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>71467000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>69172000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>70361000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>70065000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>69195000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>68746000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>66731000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>66457000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>66481000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>66288000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>65564000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>65446000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>65463000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>63239000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>61038860000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>59642990000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>59179910000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>59664540000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>58410930000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>58365460000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>57555930000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>57208880000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>55458870000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>55111270000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>56080840000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>56031130000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>55188310000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>54904540000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>54110560000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>10417000000</v>
+      </c>
+      <c r="C10">
         <v>5363000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1018000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>638000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>903000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>579000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>741000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1032000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1572000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1252000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>860000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3765000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2053000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4579000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6023000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>4944000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5653000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3780000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4158000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>4867000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>4624000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>4342000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>3137000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1115561000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>270255000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>232188000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>346987000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>272391000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>227124000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>203597000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>244223000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>191798000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>258401000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>279837000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>340348000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>273774000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>256615000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>326769000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>71652000000</v>
+      </c>
+      <c r="C11">
         <v>75995000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>79061000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>82351000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>82789000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>77884000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>76105000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>73853000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>69653000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>67094000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>65684000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>57518000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>57085000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>56139000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>54332000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>54535000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>54101000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>53785000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>53580000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>52963000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>52621000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>52099000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>52378000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>53475000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>53236000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>50848660000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>50270920000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>49887860000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>50374090000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>48920150000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>48937130000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>48123360000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>47848070000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>46265340000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>45670610000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>46532090000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>46361880000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>45669370000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>45016050000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>44490200000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>5376000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1018000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>638000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>903000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>579000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>741000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1032000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1572000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1252000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>860000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3765000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2053000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>82069000000</v>
+      </c>
+      <c r="C13">
         <v>81358000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>80079000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>82989000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>83692000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>78463000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>76846000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>74885000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>69653000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>68346000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>66544000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>61283000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>57085000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>60718000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>60355000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>59479000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>54101000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>57565000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>57738000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>57830000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>52621000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>56723000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>56720000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>56612000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>53236000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>51964220000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>50541180000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>50120040000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>50721080000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>49192540000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>49164250000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>48326960000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>48092300000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>46457130000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>45929020000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>46811920000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>46702230000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>45943140000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>45272670000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>44816960000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>651000000</v>
+      </c>
+      <c r="C14">
         <v>647000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>671000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>689000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1012000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1020000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1308000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1299000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2908000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1347000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1353000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1795000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3776000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1242000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1236000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1228000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>6377000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>879000000</v>
-      </c>
-      <c r="S14">
-        <v>383000000</v>
       </c>
       <c r="T14">
         <v>383000000</v>
       </c>
       <c r="U14">
+        <v>383000000</v>
+      </c>
+      <c r="V14">
         <v>5359000000</v>
-      </c>
-      <c r="V14">
-        <v>383000000</v>
       </c>
       <c r="W14">
         <v>383000000</v>
@@ -2043,434 +2193,446 @@
         <v>383000000</v>
       </c>
       <c r="Y14">
+        <v>383000000</v>
+      </c>
+      <c r="Z14">
         <v>1362000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>570385000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>698712000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>802448000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>812366000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>944752000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1050938000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1089321000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1092282000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1113677000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1933136000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2158701000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2273575000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2304301000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2173176000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2352569000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>1932000000</v>
+      </c>
+      <c r="C15">
         <v>1773000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1402000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1154000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1033000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1049000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1021000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1004000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1032000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>996000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>975000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>917000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>958000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>892000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>875000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>900000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>690000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>734000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>715000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>624000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>629000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>697000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>594000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>738000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1007000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>824946000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>776721000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>631683000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>623580000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>635542000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>620098000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>685355000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>654764000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>565900000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>549034000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>524004000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>590761000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>608062000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>598362000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>590378000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>2583000000</v>
+      </c>
+      <c r="C16">
         <v>2420000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2073000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1843000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2045000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2069000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2329000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2303000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3940000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2343000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2328000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2712000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4734000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2134000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2111000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2128000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>7067000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1613000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1098000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1007000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>5988000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1080000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>977000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1121000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2369000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1395331000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1475433000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1434131000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1435946000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1580294000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1671036000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1774676000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1747046000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1679577000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2482170000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2682705000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2864336000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>2912363000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>2771538000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>2942947000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>84652000000</v>
+      </c>
+      <c r="C17">
         <v>83778000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>82152000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>84832000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>85737000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>80532000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>79175000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>77188000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>73593000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>70689000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>68872000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>63995000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>61819000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>62852000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>62466000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>61607000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>61168000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>59178000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>58836000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>58837000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>58609000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>57803000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>57697000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>57733000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>55605000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>53359550000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>52016610000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>51554180000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>52157020000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>50772830000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>50835290000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>50101630000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>49839340000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>48136710000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>48411180000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>49494630000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>49566560000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>48855500000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>48044210000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>47759910000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18">
         <v>3541000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4052000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>440000000</v>
@@ -2491,7 +2653,7 @@
         <v>440000000</v>
       </c>
       <c r="H19">
-        <v>566000000</v>
+        <v>440000000</v>
       </c>
       <c r="I19">
         <v>566000000</v>
@@ -2539,43 +2701,43 @@
         <v>566000000</v>
       </c>
       <c r="X19">
-        <v>710000000</v>
+        <v>566000000</v>
       </c>
       <c r="Y19">
         <v>710000000</v>
       </c>
       <c r="Z19">
-        <v>709601000</v>
+        <v>710000000</v>
       </c>
       <c r="AA19">
         <v>709601000</v>
       </c>
       <c r="AB19">
-        <v>828490000</v>
+        <v>709601000</v>
       </c>
       <c r="AC19">
         <v>828490000</v>
       </c>
       <c r="AD19">
+        <v>828490000</v>
+      </c>
+      <c r="AE19">
         <v>1004159000</v>
-      </c>
-      <c r="AE19">
-        <v>1004032000</v>
       </c>
       <c r="AF19">
         <v>1004032000</v>
       </c>
       <c r="AG19">
+        <v>1004032000</v>
+      </c>
+      <c r="AH19">
         <v>1004011000</v>
-      </c>
-      <c r="AH19">
-        <v>1004006000</v>
       </c>
       <c r="AI19">
         <v>1004006000</v>
       </c>
       <c r="AJ19">
-        <v>1003970000</v>
+        <v>1004006000</v>
       </c>
       <c r="AK19">
         <v>1003970000</v>
@@ -2584,1077 +2746,1104 @@
         <v>1003970000</v>
       </c>
       <c r="AM19">
+        <v>1003970000</v>
+      </c>
+      <c r="AN19">
         <v>1728659000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1301289000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>1754000000</v>
+      </c>
+      <c r="C20">
         <v>1799000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1845000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1889000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1928000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2245000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2565000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2653000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2686000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2680000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2675000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2668000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2735000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3002000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3271000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3806000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>4231000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>4346000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>4445000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>4552000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>4660000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>4696000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>4725000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>4747912000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>4783061000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>4777630000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>4766731000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>4756288000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>4738272000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>4728556000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>4723855000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>4717295000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>4192136000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>4185513000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>4179024000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>4172887000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>4167828000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>4170888000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>5811000000</v>
+      </c>
+      <c r="C21">
         <v>5597000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>5447000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5311000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5175000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5025000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4853000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4566000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4309000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4090000000</v>
-      </c>
-      <c r="K21">
-        <v>3979000000</v>
       </c>
       <c r="L21">
         <v>3979000000</v>
       </c>
       <c r="M21">
+        <v>3979000000</v>
+      </c>
+      <c r="N21">
         <v>4009000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>3892000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3737000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3603000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3456000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3296000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3139000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2999000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2807000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2700000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2572000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2435000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2321000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>2211793000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2110069000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2031270000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1966910000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1894623000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1823043000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1836619000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1769705000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1711785000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1640785000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1542195000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1473670000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1540455000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1338401000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1290131000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>4453000000</v>
+      </c>
+      <c r="C22">
         <v>4256000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>5192000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>5854000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7023000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>7334000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7593000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>7367000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>7320000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7102000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>7009000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>6906000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6787000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>6943000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>7033000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>7022000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>7012000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>6987000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>7055000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>7078000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>7113000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>7195000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>7183000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>7020000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>6924000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>6969706000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>6916782000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>6797247000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>6679029000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>6633936000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>6526143000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>6450266000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>6365519000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>6318153000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>5696084000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>5582246000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>5460593000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>5328839000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>5131673000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>5049364000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>4893000000</v>
+      </c>
+      <c r="C23">
         <v>4696000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5632000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>6294000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7463000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>7774000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>8033000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>7933000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7886000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7668000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>7575000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>7472000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>7353000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>7509000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>7599000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>7588000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>7578000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>7553000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>7621000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>7644000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>7679000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>7761000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>7749000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>7730000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>7634000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>7679307000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7626383000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>7625737000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>7507519000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>7638095000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>7530175000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>7454298000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>7369530000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>7322159000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>6700090000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>6586216000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>6464563000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>6332809000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>6860332000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>6350653000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>89545000000</v>
+      </c>
+      <c r="C24">
         <v>88474000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>87784000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>91126000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>93200000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>88306000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>87208000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>85121000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>81479000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>78357000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>76447000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>71467000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>69172000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>70361000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>70065000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>69195000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>68746000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>66731000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>66457000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>66481000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>66288000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>65564000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>65446000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>65463000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>63239000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>61038860000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>59642990000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>59179910000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>59664540000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>58410930000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>58365460000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>57555930000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>57208880000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>55458870000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>55111270000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>56080840000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>56031130000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>55188310000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>54904540000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>54110560000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>148664000</v>
+      </c>
+      <c r="C25">
         <v>149611000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>150471000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>151348000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>151625000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>156530000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>162248000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>163800000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>164090000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>164009000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>163978000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>163852000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>165057000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>170373000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>176935000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>182513000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>187554000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>192169000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>195392000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>197050000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>197532000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>199712000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>202131000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>202595000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>203085000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>203850000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>205104000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>204544000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>204417000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>204279000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>203741000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>203193000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>203015000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>202898000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>185113000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>184895000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>184678000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>184600000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>184437000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>184246000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26">
         <v>439500</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>439500</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>565700</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>565700</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>565700</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>565500</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>828200</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1003800</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3828000000</v>
+      </c>
+      <c r="C27">
         <v>3662000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4617000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5279000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>6448000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>6759000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>7018000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6917000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6870000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6652000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>6561000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>6458000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>6339000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>6495000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>6585000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>6574000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>6563000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>6538000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>6606000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>6628000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>6663000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>6744000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>6730000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>6709000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>6612000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>6654847000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>6599973000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>6597350000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>6477119000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>6605419000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>6495204000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>6417006000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>6329882000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>6279871000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>5655135000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>5538524000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>5413993000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>5279013000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>5802964000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>5289523000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-4237000000</v>
+      </c>
+      <c r="C28">
         <v>860000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-2696000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-7193000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-11468000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-10603000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-10457000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-8176000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-3168000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1835000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-362000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2895000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3715000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-1487000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-704000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-764000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3577000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-964000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-1548000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-1643000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3367000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-1446000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-1753000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-2347000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-1469000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-3255550000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-2755753000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-4407495000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-6762003000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-7615643000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-8847375000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-8014043000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-8384650000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-7351142000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-6372455000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-7776574000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-7393363000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-7488768000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-7438114000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-6729994000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>651000000</v>
+      </c>
+      <c r="C29">
         <v>6023000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1689000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1327000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1915000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1599000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2049000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2331000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4480000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2599000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2213000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>5560000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>5829000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1242000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1236000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1228000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>6377000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>879000000</v>
-      </c>
-      <c r="S29">
-        <v>383000000</v>
       </c>
       <c r="T29">
         <v>383000000</v>
       </c>
       <c r="U29">
+        <v>383000000</v>
+      </c>
+      <c r="V29">
         <v>5359000000</v>
-      </c>
-      <c r="V29">
-        <v>383000000</v>
       </c>
       <c r="W29">
         <v>383000000</v>
@@ -3663,51 +3852,54 @@
         <v>383000000</v>
       </c>
       <c r="Y29">
+        <v>383000000</v>
+      </c>
+      <c r="Z29">
         <v>1362000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>570385000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>698712000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>802448000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>812366000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>944752000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1050938000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1089321000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1092282000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1113677000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1933136000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>2158701000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>2273575000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>2304301000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>2173176000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>2352569000</v>
       </c>
     </row>
